--- a/ventas.xlsx
+++ b/ventas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\misrepositorios\proyectoexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B70DBA-797C-4ECA-AF86-258EDCE83C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA5388-AADD-403B-B663-83A7FB2CBAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="630" windowWidth="15375" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="630" windowWidth="15375" windowHeight="7515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>codigo</t>
   </si>
@@ -34,6 +35,15 @@
   </si>
   <si>
     <t>apellidos</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>descrpcion</t>
+  </si>
+  <si>
+    <t>precio</t>
   </si>
 </sst>
 </file>
@@ -353,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
@@ -373,4 +383,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2833766C-98E7-4C1E-86D7-7748F19E3D18}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>